--- a/Task 19/solution_3077.xlsx
+++ b/Task 19/solution_3077.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Django\2022\preparation_for_the_EGE\Task 19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D85744B-9B07-475D-B64C-90865D8C57EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4A3EF-ED1D-49D4-B6B1-45C9DB93B565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Петя</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Опасность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петя </t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,133 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -110,13 +239,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -396,13 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:N9"/>
+  <dimension ref="C1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
@@ -542,23 +667,210 @@
         <v>135</v>
       </c>
     </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <f>C12+2</f>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <f>D12+2</f>
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <f>E12+2</f>
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <f>G12*3</f>
+        <v>57</v>
+      </c>
+      <c r="J12">
+        <f>G12</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f>E12*3</f>
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <f>G13*3</f>
+        <v>153</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J15" si="1">G13</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f>D12*3</f>
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <f>E14+2</f>
+        <v>47</v>
+      </c>
+      <c r="I14">
+        <f>G14*3</f>
+        <v>141</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>E14*3</f>
+        <v>135</v>
+      </c>
+      <c r="I15">
+        <f>G15*3</f>
+        <v>405</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>C12*3</f>
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <f>D16+2</f>
+        <v>41</v>
+      </c>
+      <c r="G16">
+        <f>E16+2</f>
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <f>G16*3</f>
+        <v>129</v>
+      </c>
+      <c r="J16">
+        <f>G16</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>E16*3</f>
+        <v>123</v>
+      </c>
+      <c r="I17">
+        <f>G17*3</f>
+        <v>369</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J19" si="2">G17</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f>D16*3</f>
+        <v>117</v>
+      </c>
+      <c r="G18">
+        <f>E18+2</f>
+        <v>119</v>
+      </c>
+      <c r="I18">
+        <f>G18*3</f>
+        <v>357</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f>E18*3</f>
+        <v>351</v>
+      </c>
+      <c r="I19">
+        <f>G19*3</f>
+        <v>1053</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="greaterThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H9">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="greaterThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H9">
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J15">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I19">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J19">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>50</formula>
     </cfRule>
